--- a/biology/Zoologie/Charles_Montague_Cooke_Jr/Charles_Montague_Cooke_Jr.xlsx
+++ b/biology/Zoologie/Charles_Montague_Cooke_Jr/Charles_Montague_Cooke_Jr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Montague Cooke Jr est un zoologiste américain, né le 20 décembre 1874 à Honolulu et mort le 29 octobre 1948.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Charles Montague (1849-1909) et d’Anna Charlotte née Rice (1853-1934). Il obtient son Bachelor of Arts à l’Université Yale en 1897 puis son Ph.D. en 1901. Il se marie le 25 avril 1901 avec Eliza Lefferts.
 Il dirige, de 1920 à 1948, la fondation créée par ses parents, la Cooke Foundation, limited. Il travaille avec le muséum Bishop d’Honolulu. L’université d’Hawaï lui attribue un doctorat honoraire en 1936.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
